--- a/codigo_final_organizado/Simulaciones/proporciones/resultados_TEST_PROP240_ARIMA.xlsx
+++ b/codigo_final_organizado/Simulaciones/proporciones/resultados_TEST_PROP240_ARIMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,87 +446,72 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tipo_Proceso</t>
+          <t>Distribución</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Distribución</t>
+          <t>Varianza</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Varianza</t>
+          <t>N_Train</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>N_Train</t>
+          <t>N_Calib</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>N_Calib</t>
+          <t>Prop_Calib</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>N_Total</t>
+          <t>Block Bootstrapping</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Prop_Calib</t>
+          <t>Sieve Bootstrap</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Valor_Observado</t>
+          <t>LSPM</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>LSPMW</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>AREPD</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>MCPS</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>AV-MCPS</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Block Bootstrapping</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>DeepAR</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>EnCQR-LSTM</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
         </is>
       </c>
     </row>
@@ -541,60 +526,49 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F2" t="n">
-        <v>216</v>
-      </c>
-      <c r="G2" t="n">
         <v>24</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>240</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>3.238102318441159</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6359620800162363</v>
       </c>
       <c r="J2" t="n">
-        <v>-9.81608251111437</v>
+        <v>0.7282204154002482</v>
       </c>
       <c r="K2" t="n">
-        <v>1.043742642085705</v>
+        <v>0.6603781004933591</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7044514938302041</v>
+        <v>2.995277299008302</v>
       </c>
       <c r="M2" t="n">
-        <v>1.585544809788251</v>
+        <v>0.6570446958608362</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4170140105310515</v>
+        <v>0.6246491841508601</v>
       </c>
       <c r="O2" t="n">
-        <v>1.572924656008694</v>
+        <v>0.7934934528522075</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2646953202775713</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.255921426520171</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.22454009681744</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.3103308003982064</v>
+        <v>1.919237138693476</v>
       </c>
     </row>
     <row r="3">
@@ -608,60 +582,49 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F3" t="n">
-        <v>216</v>
-      </c>
-      <c r="G3" t="n">
         <v>24</v>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H3" t="n">
-        <v>240</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>1.488624691119662</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6382131485158909</v>
       </c>
       <c r="J3" t="n">
-        <v>-9.663519999011902</v>
+        <v>1.613129313316973</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9469342393005309</v>
+        <v>1.347573596445656</v>
       </c>
       <c r="L3" t="n">
-        <v>1.643764482351842</v>
+        <v>1.257659163422792</v>
       </c>
       <c r="M3" t="n">
-        <v>1.467691960748826</v>
+        <v>1.056338644732417</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3001724411074705</v>
+        <v>1.509306322662718</v>
       </c>
       <c r="O3" t="n">
-        <v>1.585657369993023</v>
+        <v>0.6926819303776881</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2212687528710667</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.2206739642911948</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.494332427961958</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.2489475775740327</v>
+        <v>1.636673351984401</v>
       </c>
     </row>
     <row r="4">
@@ -675,60 +638,49 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F4" t="n">
-        <v>216</v>
-      </c>
-      <c r="G4" t="n">
         <v>24</v>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H4" t="n">
-        <v>240</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>1.683960214950392</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.5827150551519796</v>
       </c>
       <c r="J4" t="n">
-        <v>-8.192028026018745</v>
+        <v>0.8006581696971874</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5106588739223454</v>
+        <v>1.049885135144671</v>
       </c>
       <c r="L4" t="n">
-        <v>2.762630057775453</v>
+        <v>1.472592777326335</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9943676977230056</v>
+        <v>0.8614422699237496</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5861198587135368</v>
+        <v>1.204655425093418</v>
       </c>
       <c r="O4" t="n">
-        <v>1.708980409730976</v>
+        <v>0.6244875919034042</v>
       </c>
       <c r="P4" t="n">
-        <v>1.116581766571347</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.8512691266389262</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.990414066953499</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.9618279712054063</v>
+        <v>1.684904829260272</v>
       </c>
     </row>
     <row r="5">
@@ -742,60 +694,49 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F5" t="n">
-        <v>216</v>
-      </c>
-      <c r="G5" t="n">
         <v>24</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H5" t="n">
-        <v>240</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>1.81914789822087</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5637168529060613</v>
       </c>
       <c r="J5" t="n">
-        <v>-10.75868646695004</v>
+        <v>0.5656216181473457</v>
       </c>
       <c r="K5" t="n">
-        <v>1.67424831968053</v>
+        <v>1.029626611870299</v>
       </c>
       <c r="L5" t="n">
-        <v>1.591994654687666</v>
+        <v>1.482224746466261</v>
       </c>
       <c r="M5" t="n">
-        <v>2.118631499662227</v>
+        <v>0.8807989590518337</v>
       </c>
       <c r="N5" t="n">
-        <v>2.659602825870492</v>
+        <v>1.248334148890197</v>
       </c>
       <c r="O5" t="n">
-        <v>1.546163679810735</v>
+        <v>0.5749083760836247</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6983810476043849</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.8110033795252781</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.522849931334101</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.392760107692989</v>
+        <v>1.701092901891403</v>
       </c>
     </row>
     <row r="6">
@@ -809,60 +750,49 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F6" t="n">
-        <v>216</v>
-      </c>
-      <c r="G6" t="n">
         <v>24</v>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H6" t="n">
-        <v>240</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>1.897592308942492</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6283134892022634</v>
       </c>
       <c r="J6" t="n">
-        <v>-10.99553673145973</v>
+        <v>0.6151725573870087</v>
       </c>
       <c r="K6" t="n">
-        <v>1.859028693990597</v>
+        <v>0.8057752417764775</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8654104631281766</v>
+        <v>1.729206231014027</v>
       </c>
       <c r="M6" t="n">
-        <v>2.383769156893849</v>
+        <v>1.29834129533652</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2965034155745317</v>
+        <v>1.303869047012055</v>
       </c>
       <c r="O6" t="n">
-        <v>1.549302858356102</v>
+        <v>0.6197119056130721</v>
       </c>
       <c r="P6" t="n">
-        <v>2.501606346513559</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.013440746833994</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.9724301322670152</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.2176766634554494</v>
+        <v>1.753252745342718</v>
       </c>
     </row>
     <row r="7">
@@ -876,60 +806,49 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F7" t="n">
-        <v>216</v>
-      </c>
-      <c r="G7" t="n">
         <v>24</v>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H7" t="n">
-        <v>240</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>3.42138256303537</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5842364505903779</v>
       </c>
       <c r="J7" t="n">
-        <v>-10.81902431008728</v>
+        <v>1.583881250568793</v>
       </c>
       <c r="K7" t="n">
-        <v>1.710245793095384</v>
+        <v>0.7365611115091114</v>
       </c>
       <c r="L7" t="n">
-        <v>0.814497147316929</v>
+        <v>3.108295569488121</v>
       </c>
       <c r="M7" t="n">
-        <v>2.133171171865341</v>
+        <v>0.6226384832793934</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3066268481718162</v>
+        <v>0.6359926437830111</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53479149556867</v>
+        <v>0.7991960001133656</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2649079177599596</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.8611879532062131</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.168381157109772</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.2417382244109386</v>
+        <v>2.11408461269791</v>
       </c>
     </row>
     <row r="8">
@@ -943,60 +862,49 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F8" t="n">
-        <v>216</v>
-      </c>
-      <c r="G8" t="n">
         <v>24</v>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H8" t="n">
-        <v>240</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>1.747821867131689</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.604028471462377</v>
       </c>
       <c r="J8" t="n">
-        <v>-10.52303032040018</v>
+        <v>1.534243030340453</v>
       </c>
       <c r="K8" t="n">
-        <v>1.477587507996675</v>
+        <v>1.028093397702002</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7879721393787459</v>
+        <v>1.456413262024546</v>
       </c>
       <c r="M8" t="n">
-        <v>2.106669435429164</v>
+        <v>0.7281275054804653</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3838719118364956</v>
+        <v>1.383262369695369</v>
       </c>
       <c r="O8" t="n">
-        <v>1.535376110043077</v>
+        <v>0.6884426673641456</v>
       </c>
       <c r="P8" t="n">
-        <v>0.345092393192646</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.6294141969046322</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.8954632739750171</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.2462627271880176</v>
+        <v>1.712695601984574</v>
       </c>
     </row>
     <row r="9">
@@ -1010,60 +918,49 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F9" t="n">
-        <v>216</v>
-      </c>
-      <c r="G9" t="n">
         <v>24</v>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H9" t="n">
-        <v>240</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>1.414422763267546</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6955166696972476</v>
       </c>
       <c r="J9" t="n">
-        <v>-10.89494490172147</v>
+        <v>0.5583988025981065</v>
       </c>
       <c r="K9" t="n">
-        <v>1.750757394472606</v>
+        <v>1.534311962528033</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5442553908083776</v>
+        <v>1.099205128853324</v>
       </c>
       <c r="M9" t="n">
-        <v>2.12009583465292</v>
+        <v>1.207956447970824</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5863100600306909</v>
+        <v>1.718307398909657</v>
       </c>
       <c r="O9" t="n">
-        <v>1.520547895803656</v>
+        <v>0.6461438589654364</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3144589962438544</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.925925854961711</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.8244907248990897</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.2264968288059126</v>
+        <v>1.653532197796036</v>
       </c>
     </row>
     <row r="10">
@@ -1077,60 +974,49 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F10" t="n">
-        <v>216</v>
-      </c>
-      <c r="G10" t="n">
         <v>24</v>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H10" t="n">
-        <v>240</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>1.795379882623492</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6118353570975831</v>
       </c>
       <c r="J10" t="n">
-        <v>-12.65166668420005</v>
+        <v>0.7762945423321937</v>
       </c>
       <c r="K10" t="n">
-        <v>3.309029348047215</v>
+        <v>1.075189271889986</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5346278931909894</v>
+        <v>1.412507079746319</v>
       </c>
       <c r="M10" t="n">
-        <v>3.600151579645195</v>
+        <v>0.8951058988810032</v>
       </c>
       <c r="N10" t="n">
-        <v>1.526420621716907</v>
+        <v>0.8874578392912768</v>
       </c>
       <c r="O10" t="n">
-        <v>1.829724963741809</v>
+        <v>0.5881317643865626</v>
       </c>
       <c r="P10" t="n">
-        <v>1.509350220377995</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.642272804157544</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.7317172020709978</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.185179396160866</v>
+        <v>1.716472661320982</v>
       </c>
     </row>
     <row r="11">
@@ -1144,60 +1030,49 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F11" t="n">
-        <v>216</v>
-      </c>
-      <c r="G11" t="n">
         <v>24</v>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H11" t="n">
-        <v>240</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>0.9718906362035352</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6958776473048244</v>
       </c>
       <c r="J11" t="n">
-        <v>-12.32367120048594</v>
+        <v>1.324524175510059</v>
       </c>
       <c r="K11" t="n">
-        <v>2.986859180882528</v>
+        <v>2.433481329186439</v>
       </c>
       <c r="L11" t="n">
-        <v>0.276139996842898</v>
+        <v>0.8058041731571689</v>
       </c>
       <c r="M11" t="n">
-        <v>3.201467180946886</v>
+        <v>0.7632956995292427</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3171701630188697</v>
+        <v>1.043789683489238</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62507846478693</v>
+        <v>0.6170693130337054</v>
       </c>
       <c r="P11" t="n">
-        <v>1.075570023992399</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.314277320443433</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.6520892413336737</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.2043455109000208</v>
+        <v>1.584066196513749</v>
       </c>
     </row>
     <row r="12">
@@ -1211,60 +1086,49 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F12" t="n">
-        <v>216</v>
-      </c>
-      <c r="G12" t="n">
         <v>24</v>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H12" t="n">
-        <v>240</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>1.601367485799824</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5791104703982662</v>
       </c>
       <c r="J12" t="n">
-        <v>-10.59632098632176</v>
+        <v>1.392587444700079</v>
       </c>
       <c r="K12" t="n">
-        <v>1.487224546450571</v>
+        <v>1.132950268070293</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7070848801984565</v>
+        <v>1.350982121482124</v>
       </c>
       <c r="M12" t="n">
-        <v>1.854598640670619</v>
+        <v>1.703690653605015</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6138650555681902</v>
+        <v>1.918289505158407</v>
       </c>
       <c r="O12" t="n">
-        <v>1.532401943265273</v>
+        <v>0.588119997072393</v>
       </c>
       <c r="P12" t="n">
-        <v>1.636286993625554</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.6823022204457009</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.8695758918506766</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.403981341402045</v>
+        <v>1.724332920875766</v>
       </c>
     </row>
     <row r="13">
@@ -1278,60 +1142,49 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F13" t="n">
-        <v>216</v>
-      </c>
-      <c r="G13" t="n">
         <v>24</v>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H13" t="n">
-        <v>240</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>1.769651595199763</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.6096048286033311</v>
       </c>
       <c r="J13" t="n">
-        <v>-12.13018239123789</v>
+        <v>0.589240369108246</v>
       </c>
       <c r="K13" t="n">
-        <v>2.770424458282542</v>
+        <v>0.9023977851212646</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2328145768461952</v>
+        <v>1.529882819169385</v>
       </c>
       <c r="M13" t="n">
-        <v>3.103473054666035</v>
+        <v>1.622421348665966</v>
       </c>
       <c r="N13" t="n">
-        <v>1.853629379954529</v>
+        <v>1.69978594865016</v>
       </c>
       <c r="O13" t="n">
-        <v>1.513350788440594</v>
+        <v>0.5524249930942932</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2118249158642561</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.120788511195387</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.5504696795288546</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.751043020083595</v>
+        <v>1.768254255664371</v>
       </c>
     </row>
     <row r="14">
@@ -1347,58 +1200,49 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F14" t="n">
-        <v>216</v>
-      </c>
-      <c r="G14" t="n">
         <v>24</v>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H14" t="n">
-        <v>240</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>1.90411201874465</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6190942100788698</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.006830974092224</v>
+      </c>
       <c r="K14" t="n">
-        <v>1.793895083183936</v>
+        <v>1.144685317644799</v>
       </c>
       <c r="L14" t="n">
-        <v>0.955470264696328</v>
+        <v>1.641670864263226</v>
       </c>
       <c r="M14" t="n">
-        <v>2.22246933522436</v>
+        <v>1.024766825193106</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8206088826745485</v>
+        <v>1.26480829306553</v>
       </c>
       <c r="O14" t="n">
-        <v>1.587858386295795</v>
+        <v>0.6487343209049916</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8466687245745493</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.110706458760349</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.158062818841841</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.7825491807731232</v>
+        <v>1.747383284502138</v>
       </c>
     </row>
     <row r="15">
@@ -1412,60 +1256,49 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F15" t="n">
-        <v>216</v>
-      </c>
-      <c r="G15" t="n">
         <v>24</v>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H15" t="n">
-        <v>240</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>25.63001319384373</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5685547339213305</v>
       </c>
       <c r="J15" t="n">
-        <v>-17.23243741350278</v>
+        <v>0.5798709877465913</v>
       </c>
       <c r="K15" t="n">
-        <v>11.84721646792726</v>
+        <v>0.5736545305068501</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7876686611009652</v>
+        <v>23.94499875074762</v>
       </c>
       <c r="M15" t="n">
-        <v>12.69979783579322</v>
+        <v>8.002502469609832</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8249389589833481</v>
+        <v>6.520148125590883</v>
       </c>
       <c r="O15" t="n">
-        <v>4.131614625488837</v>
+        <v>11.07104786882903</v>
       </c>
       <c r="P15" t="n">
-        <v>1.317510900932161</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.27094559850128</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.7179697766476756</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.610447213019837</v>
+        <v>10.47330812316172</v>
       </c>
     </row>
     <row r="16">
@@ -1479,60 +1312,49 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F16" t="n">
-        <v>216</v>
-      </c>
-      <c r="G16" t="n">
         <v>24</v>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H16" t="n">
-        <v>240</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>23.13689090278415</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5803719300504723</v>
       </c>
       <c r="J16" t="n">
-        <v>-16.28541448158561</v>
+        <v>1.813094308739355</v>
       </c>
       <c r="K16" t="n">
-        <v>12.69066687884183</v>
+        <v>1.575772677292848</v>
       </c>
       <c r="L16" t="n">
-        <v>1.136827711829733</v>
+        <v>21.61785778524923</v>
       </c>
       <c r="M16" t="n">
-        <v>14.11617144756724</v>
+        <v>5.99435141867305</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7343931891108781</v>
+        <v>5.045875052414375</v>
       </c>
       <c r="O16" t="n">
-        <v>4.269379707463308</v>
+        <v>8.863059011978361</v>
       </c>
       <c r="P16" t="n">
-        <v>1.344680477598399</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.181041892496739</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.545406232624208</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.2901068104231538</v>
+        <v>9.178517501310802</v>
       </c>
     </row>
     <row r="17">
@@ -1546,60 +1368,49 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F17" t="n">
-        <v>216</v>
-      </c>
-      <c r="G17" t="n">
         <v>24</v>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H17" t="n">
-        <v>240</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>22.8257185140546</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5560287706977645</v>
       </c>
       <c r="J17" t="n">
-        <v>-14.57216228452816</v>
+        <v>0.6603375399941439</v>
       </c>
       <c r="K17" t="n">
-        <v>14.30143917726295</v>
+        <v>1.966808287395596</v>
       </c>
       <c r="L17" t="n">
-        <v>2.876317875479682</v>
+        <v>21.01956293254943</v>
       </c>
       <c r="M17" t="n">
-        <v>14.88883152273007</v>
+        <v>5.655130466407909</v>
       </c>
       <c r="N17" t="n">
-        <v>1.241307845998856</v>
+        <v>4.829814876970373</v>
       </c>
       <c r="O17" t="n">
-        <v>4.869019566980747</v>
+        <v>8.6613627890831</v>
       </c>
       <c r="P17" t="n">
-        <v>1.445384020878993</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3.894294089554188</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3.500624451031672</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.8539097291301001</v>
+        <v>8.929390125920355</v>
       </c>
     </row>
     <row r="18">
@@ -1613,60 +1424,49 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F18" t="n">
-        <v>216</v>
-      </c>
-      <c r="G18" t="n">
         <v>24</v>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H18" t="n">
-        <v>240</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>20.50516118693066</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5770539044420302</v>
       </c>
       <c r="J18" t="n">
-        <v>-14.31136378522408</v>
+        <v>1.431395189052602</v>
       </c>
       <c r="K18" t="n">
-        <v>14.44943576341755</v>
+        <v>3.855473719559958</v>
       </c>
       <c r="L18" t="n">
-        <v>3.40358721367137</v>
+        <v>19.04211018105389</v>
       </c>
       <c r="M18" t="n">
-        <v>15.65292399235405</v>
+        <v>4.311208765875632</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6353951515523517</v>
+        <v>4.219976684899239</v>
       </c>
       <c r="O18" t="n">
-        <v>4.588306723405109</v>
+        <v>6.896023971355924</v>
       </c>
       <c r="P18" t="n">
-        <v>0.9858845649456048</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4.155092588858273</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4.441340448833507</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.3895674027171895</v>
+        <v>8.319251831670659</v>
       </c>
     </row>
     <row r="19">
@@ -1680,60 +1480,49 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F19" t="n">
-        <v>216</v>
-      </c>
-      <c r="G19" t="n">
         <v>24</v>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H19" t="n">
-        <v>240</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>20.7716658485047</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5579522362209808</v>
       </c>
       <c r="J19" t="n">
-        <v>-14.35832307412564</v>
+        <v>0.5755649137918578</v>
       </c>
       <c r="K19" t="n">
-        <v>14.27965430269906</v>
+        <v>3.522338679134786</v>
       </c>
       <c r="L19" t="n">
-        <v>4.019010971385136</v>
+        <v>19.19263001940879</v>
       </c>
       <c r="M19" t="n">
-        <v>15.1183711554864</v>
+        <v>4.428273031377869</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4352121124316193</v>
+        <v>4.231096353650919</v>
       </c>
       <c r="O19" t="n">
-        <v>4.218077172719563</v>
+        <v>7.358153625408668</v>
       </c>
       <c r="P19" t="n">
-        <v>0.4259879528936243</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4.108133299956715</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5.923138290250939</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.2630820598183663</v>
+        <v>8.39490135341474</v>
       </c>
     </row>
     <row r="20">
@@ -1747,60 +1536,49 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F20" t="n">
-        <v>216</v>
-      </c>
-      <c r="G20" t="n">
         <v>24</v>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H20" t="n">
-        <v>240</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>25.36391456383927</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5888202980320134</v>
       </c>
       <c r="J20" t="n">
-        <v>-13.76698312188634</v>
+        <v>3.097926197002427</v>
       </c>
       <c r="K20" t="n">
-        <v>14.73971674330071</v>
+        <v>0.6322048236625727</v>
       </c>
       <c r="L20" t="n">
-        <v>4.745619163133424</v>
+        <v>22.42750624906661</v>
       </c>
       <c r="M20" t="n">
-        <v>15.84084133641655</v>
+        <v>7.216536191666278</v>
       </c>
       <c r="N20" t="n">
-        <v>0.5540562288793249</v>
+        <v>6.073957309751893</v>
       </c>
       <c r="O20" t="n">
-        <v>4.230453364704108</v>
+        <v>10.8947127315318</v>
       </c>
       <c r="P20" t="n">
-        <v>0.284633708567043</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4.699473252196007</v>
-      </c>
-      <c r="R20" t="n">
-        <v>6.55713266537612</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.3532093820934489</v>
+        <v>9.771920135489943</v>
       </c>
     </row>
     <row r="21">
@@ -1814,60 +1592,49 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F21" t="n">
-        <v>216</v>
-      </c>
-      <c r="G21" t="n">
         <v>24</v>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H21" t="n">
-        <v>240</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>25.36034686133421</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5856690190811557</v>
       </c>
       <c r="J21" t="n">
-        <v>-14.19221024251931</v>
+        <v>0.6285535197424824</v>
       </c>
       <c r="K21" t="n">
-        <v>14.20072597351175</v>
+        <v>0.5547978350604089</v>
       </c>
       <c r="L21" t="n">
-        <v>4.234730868288101</v>
+        <v>22.63125231938175</v>
       </c>
       <c r="M21" t="n">
-        <v>14.95454987762112</v>
+        <v>7.915639654520275</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4063140103976003</v>
+        <v>6.417321569895418</v>
       </c>
       <c r="O21" t="n">
-        <v>3.885434432973149</v>
+        <v>11.14100968776366</v>
       </c>
       <c r="P21" t="n">
-        <v>0.2446720896494533</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4.274246131563038</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5.857086101625788</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.4013520772484118</v>
+        <v>9.93669365984694</v>
       </c>
     </row>
     <row r="22">
@@ -1881,60 +1648,49 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F22" t="n">
-        <v>216</v>
-      </c>
-      <c r="G22" t="n">
         <v>24</v>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H22" t="n">
-        <v>240</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>25.61947607724139</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5752581484324429</v>
       </c>
       <c r="J22" t="n">
-        <v>-14.40394763122813</v>
+        <v>1.225275264984476</v>
       </c>
       <c r="K22" t="n">
-        <v>13.87673647571974</v>
+        <v>1.515871212664128</v>
       </c>
       <c r="L22" t="n">
-        <v>4.029336291037639</v>
+        <v>24.2919660225388</v>
       </c>
       <c r="M22" t="n">
-        <v>15.64001589280037</v>
+        <v>10.17700653136225</v>
       </c>
       <c r="N22" t="n">
-        <v>0.4306148052974816</v>
+        <v>7.887157140968409</v>
       </c>
       <c r="O22" t="n">
-        <v>3.733741841175918</v>
+        <v>12.78314187916556</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5582044912836734</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4.062508742854219</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5.631098317065926</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.2441215008935571</v>
+        <v>11.03282161829222</v>
       </c>
     </row>
     <row r="23">
@@ -1948,60 +1704,49 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F23" t="n">
-        <v>216</v>
-      </c>
-      <c r="G23" t="n">
         <v>24</v>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H23" t="n">
-        <v>240</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>26.73598628375307</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5601601893873805</v>
       </c>
       <c r="J23" t="n">
-        <v>-12.99599754743095</v>
+        <v>1.629045766632315</v>
       </c>
       <c r="K23" t="n">
-        <v>15.11496412771938</v>
+        <v>3.56557442785147</v>
       </c>
       <c r="L23" t="n">
-        <v>5.118059560002663</v>
+        <v>26.21024267806166</v>
       </c>
       <c r="M23" t="n">
-        <v>16.17307931726382</v>
+        <v>11.86560795142721</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8166465281578803</v>
+        <v>9.797205925798291</v>
       </c>
       <c r="O23" t="n">
-        <v>4.11389258791301</v>
+        <v>14.54343878979952</v>
       </c>
       <c r="P23" t="n">
-        <v>0.9218209651258914</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5.470458826651404</v>
-      </c>
-      <c r="R23" t="n">
-        <v>7.113069129553665</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.193571892226479</v>
+        <v>12.45772347262219</v>
       </c>
     </row>
     <row r="24">
@@ -2015,60 +1760,49 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F24" t="n">
-        <v>216</v>
-      </c>
-      <c r="G24" t="n">
         <v>24</v>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H24" t="n">
-        <v>240</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>26.54462715063986</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5796900051558832</v>
       </c>
       <c r="J24" t="n">
-        <v>-12.04552310555009</v>
+        <v>0.878891769425664</v>
       </c>
       <c r="K24" t="n">
-        <v>15.91199456381482</v>
+        <v>2.438715348860271</v>
       </c>
       <c r="L24" t="n">
-        <v>6.024650856014485</v>
+        <v>24.87398782835633</v>
       </c>
       <c r="M24" t="n">
-        <v>16.49107418365549</v>
+        <v>10.64105698762072</v>
       </c>
       <c r="N24" t="n">
-        <v>1.155728916251354</v>
+        <v>8.514756671527939</v>
       </c>
       <c r="O24" t="n">
-        <v>4.476298864295609</v>
+        <v>13.60061434704997</v>
       </c>
       <c r="P24" t="n">
-        <v>1.96184659481616</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>6.420933268532264</v>
-      </c>
-      <c r="R24" t="n">
-        <v>8.080412951434264</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.3193426288769722</v>
+        <v>11.40222909246528</v>
       </c>
     </row>
     <row r="25">
@@ -2082,60 +1816,49 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F25" t="n">
-        <v>216</v>
-      </c>
-      <c r="G25" t="n">
         <v>24</v>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H25" t="n">
-        <v>240</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>27.75450312167658</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.5820365536176152</v>
       </c>
       <c r="J25" t="n">
-        <v>-11.94475773537692</v>
+        <v>0.7932836912421957</v>
       </c>
       <c r="K25" t="n">
-        <v>15.87876960449782</v>
+        <v>3.576603515024668</v>
       </c>
       <c r="L25" t="n">
-        <v>6.02839611662491</v>
+        <v>25.79558267258908</v>
       </c>
       <c r="M25" t="n">
-        <v>16.77674497430956</v>
+        <v>12.19330770331853</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7050569282143376</v>
+        <v>10.05424928634283</v>
       </c>
       <c r="O25" t="n">
-        <v>4.380872161627264</v>
+        <v>14.54290330885947</v>
       </c>
       <c r="P25" t="n">
-        <v>0.3166053308598087</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>6.521698638705429</v>
-      </c>
-      <c r="R25" t="n">
-        <v>8.154957923603799</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.2591864306524209</v>
+        <v>12.06660739598091</v>
       </c>
     </row>
     <row r="26">
@@ -2149,60 +1872,49 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F26" t="n">
-        <v>216</v>
-      </c>
-      <c r="G26" t="n">
         <v>24</v>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H26" t="n">
-        <v>240</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
+        <v>26.17876523830632</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5801226606863268</v>
       </c>
       <c r="J26" t="n">
-        <v>-10.75492181542923</v>
+        <v>0.5913412930509238</v>
       </c>
       <c r="K26" t="n">
-        <v>16.92407337396611</v>
+        <v>3.292512494970041</v>
       </c>
       <c r="L26" t="n">
-        <v>7.278410879656123</v>
+        <v>25.30908663218479</v>
       </c>
       <c r="M26" t="n">
-        <v>18.60158281161543</v>
+        <v>11.5352014077073</v>
       </c>
       <c r="N26" t="n">
-        <v>1.210705001058785</v>
+        <v>9.472768057816319</v>
       </c>
       <c r="O26" t="n">
-        <v>4.965904722495568</v>
+        <v>14.13207186448261</v>
       </c>
       <c r="P26" t="n">
-        <v>0.5240355844232301</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>7.711534558653121</v>
-      </c>
-      <c r="R26" t="n">
-        <v>9.391646467877274</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.7278370487141742</v>
+        <v>11.66204098636242</v>
       </c>
     </row>
     <row r="27">
@@ -2218,58 +1930,49 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="F27" t="n">
-        <v>216</v>
-      </c>
-      <c r="G27" t="n">
         <v>24</v>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
       <c r="H27" t="n">
-        <v>240</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>24.70225574524238</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.5743098708104496</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.158715036783753</v>
+      </c>
       <c r="K27" t="n">
-        <v>14.51794945438992</v>
+        <v>2.255860629331967</v>
       </c>
       <c r="L27" t="n">
-        <v>4.140218014018687</v>
+        <v>23.02973200593233</v>
       </c>
       <c r="M27" t="n">
-        <v>15.57949869563444</v>
+        <v>8.327985214963904</v>
       </c>
       <c r="N27" t="n">
-        <v>0.7625308063611514</v>
+        <v>6.922027254635576</v>
       </c>
       <c r="O27" t="n">
-        <v>4.321916314270182</v>
+        <v>11.20729498960897</v>
       </c>
       <c r="P27" t="n">
-        <v>0.8609388901645034</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4.564196740710224</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5.57615689632707</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0.4921445146511759</v>
+        <v>10.30211710804485</v>
       </c>
     </row>
     <row r="28">
@@ -2283,60 +1986,49 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F28" t="n">
-        <v>168</v>
-      </c>
-      <c r="G28" t="n">
         <v>72</v>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H28" t="n">
-        <v>240</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>1.363797070767917</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.5436200361226067</v>
       </c>
       <c r="J28" t="n">
-        <v>18.41493975867799</v>
+        <v>0.6053842729317157</v>
       </c>
       <c r="K28" t="n">
-        <v>1.040606310353674</v>
+        <v>0.6513622726525754</v>
       </c>
       <c r="L28" t="n">
-        <v>1.195154839739475</v>
+        <v>1.052115420933967</v>
       </c>
       <c r="M28" t="n">
-        <v>1.849936844119273</v>
+        <v>0.9066335924459338</v>
       </c>
       <c r="N28" t="n">
-        <v>1.360860037004637</v>
+        <v>0.7424574212597997</v>
       </c>
       <c r="O28" t="n">
-        <v>3.802828338226311</v>
+        <v>0.5793881565363139</v>
       </c>
       <c r="P28" t="n">
-        <v>0.6008117022062923</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.6306115403413616</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.45459937357238</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.971153964209071</v>
+        <v>1.708276297287628</v>
       </c>
     </row>
     <row r="29">
@@ -2350,60 +2042,49 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F29" t="n">
-        <v>168</v>
-      </c>
-      <c r="G29" t="n">
         <v>72</v>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H29" t="n">
-        <v>240</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>1.157132815698492</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.5703764907189325</v>
       </c>
       <c r="J29" t="n">
-        <v>18.71041498423835</v>
+        <v>2.363075461057145</v>
       </c>
       <c r="K29" t="n">
-        <v>1.14226192234429</v>
+        <v>3.048984836384701</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2971400591420277</v>
+        <v>1.093235126653887</v>
       </c>
       <c r="M29" t="n">
-        <v>1.923946430520995</v>
+        <v>0.6568893415606178</v>
       </c>
       <c r="N29" t="n">
-        <v>0.2285449251123211</v>
+        <v>0.7893994167269589</v>
       </c>
       <c r="O29" t="n">
-        <v>3.863361941667748</v>
+        <v>0.561210648191971</v>
       </c>
       <c r="P29" t="n">
-        <v>2.164414266544869</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.8335542570426749</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0.4094349211883615</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0.3274446272357308</v>
+        <v>2.228550881372271</v>
       </c>
     </row>
     <row r="30">
@@ -2417,60 +2098,49 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F30" t="n">
-        <v>168</v>
-      </c>
-      <c r="G30" t="n">
         <v>72</v>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H30" t="n">
-        <v>240</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>1.221894514083909</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.5821608456182846</v>
       </c>
       <c r="J30" t="n">
-        <v>18.01798536094017</v>
+        <v>0.6117839414377125</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9196895352612655</v>
+        <v>3.299404185355781</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3201102695956873</v>
+        <v>1.227727125001279</v>
       </c>
       <c r="M30" t="n">
-        <v>1.588194681571174</v>
+        <v>0.7153686731775504</v>
       </c>
       <c r="N30" t="n">
-        <v>1.009606431352278</v>
+        <v>0.8497970057613285</v>
       </c>
       <c r="O30" t="n">
-        <v>3.701180927095383</v>
+        <v>0.587832545451926</v>
       </c>
       <c r="P30" t="n">
-        <v>0.3081487387719413</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.4049272246121146</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.2351811303950323</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0.4526018803496816</v>
+        <v>2.202807439942871</v>
       </c>
     </row>
     <row r="31">
@@ -2484,60 +2154,49 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F31" t="n">
-        <v>168</v>
-      </c>
-      <c r="G31" t="n">
         <v>72</v>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H31" t="n">
-        <v>240</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>1.195400514165379</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.5903585557922869</v>
       </c>
       <c r="J31" t="n">
-        <v>16.86935471179991</v>
+        <v>0.591298254282601</v>
       </c>
       <c r="K31" t="n">
-        <v>0.7522320217861456</v>
+        <v>3.482789132536843</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9519466529666933</v>
+        <v>1.334526561408079</v>
       </c>
       <c r="M31" t="n">
-        <v>1.500379111423912</v>
+        <v>1.168075378133966</v>
       </c>
       <c r="N31" t="n">
-        <v>1.433114897346895</v>
+        <v>0.8600468784291002</v>
       </c>
       <c r="O31" t="n">
-        <v>3.513419743806073</v>
+        <v>0.6063290179688083</v>
       </c>
       <c r="P31" t="n">
-        <v>1.194118552839842</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.3470580518177943</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.16390442242355</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.6314862225125</v>
+        <v>2.144379104129072</v>
       </c>
     </row>
     <row r="32">
@@ -2551,60 +2210,49 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F32" t="n">
-        <v>168</v>
-      </c>
-      <c r="G32" t="n">
         <v>72</v>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H32" t="n">
-        <v>240</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>2.064047256156681</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.5522806084538975</v>
       </c>
       <c r="J32" t="n">
-        <v>17.66580509033382</v>
+        <v>1.061335417174359</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8308372184300448</v>
+        <v>4.987503152023411</v>
       </c>
       <c r="L32" t="n">
-        <v>0.2907758386540591</v>
+        <v>2.459618020939782</v>
       </c>
       <c r="M32" t="n">
-        <v>1.65078456178209</v>
+        <v>0.6053670554985606</v>
       </c>
       <c r="N32" t="n">
-        <v>0.2508974978851009</v>
+        <v>0.675630215629649</v>
       </c>
       <c r="O32" t="n">
-        <v>3.609280114372742</v>
+        <v>0.553890055299737</v>
       </c>
       <c r="P32" t="n">
-        <v>0.344733337688986</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.2844709674074285</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0.2311265811181581</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.4146426723081451</v>
+        <v>2.554635334023366</v>
       </c>
     </row>
     <row r="33">
@@ -2618,60 +2266,49 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F33" t="n">
-        <v>168</v>
-      </c>
-      <c r="G33" t="n">
         <v>72</v>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H33" t="n">
-        <v>240</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>2.417430505459419</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.5892334118725602</v>
       </c>
       <c r="J33" t="n">
-        <v>18.35519995649618</v>
+        <v>0.6153144360795916</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9971076377529409</v>
+        <v>5.373282781498149</v>
       </c>
       <c r="L33" t="n">
-        <v>0.3009124072022443</v>
+        <v>2.813602110019784</v>
       </c>
       <c r="M33" t="n">
-        <v>1.789710526113738</v>
+        <v>0.6568830405755711</v>
       </c>
       <c r="N33" t="n">
-        <v>0.2547164385562561</v>
+        <v>0.8999234146624132</v>
       </c>
       <c r="O33" t="n">
-        <v>3.700421155144895</v>
+        <v>0.5962545846155133</v>
       </c>
       <c r="P33" t="n">
-        <v>0.8296003829256146</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.5915844627688261</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0.3235127173198551</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0.491718291922118</v>
+        <v>2.545287091500294</v>
       </c>
     </row>
     <row r="34">
@@ -2685,60 +2322,49 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F34" t="n">
-        <v>168</v>
-      </c>
-      <c r="G34" t="n">
         <v>72</v>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H34" t="n">
-        <v>240</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>2.327247203617687</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.5652127833626278</v>
       </c>
       <c r="J34" t="n">
-        <v>19.1570799022642</v>
+        <v>0.5736241223878137</v>
       </c>
       <c r="K34" t="n">
-        <v>1.325524521337458</v>
+        <v>5.583465365738375</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3368396539211073</v>
+        <v>2.99128573564147</v>
       </c>
       <c r="M34" t="n">
-        <v>1.678506267817607</v>
+        <v>0.7002810489734682</v>
       </c>
       <c r="N34" t="n">
-        <v>0.2653965636240003</v>
+        <v>1.083106160451505</v>
       </c>
       <c r="O34" t="n">
-        <v>3.824548403198256</v>
+        <v>0.5924071249606068</v>
       </c>
       <c r="P34" t="n">
-        <v>1.059831346957811</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.226127189367472</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.6307803963025836</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.4951458026027584</v>
+        <v>2.448897242428742</v>
       </c>
     </row>
     <row r="35">
@@ -2752,60 +2378,49 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F35" t="n">
-        <v>168</v>
-      </c>
-      <c r="G35" t="n">
         <v>72</v>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H35" t="n">
-        <v>240</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>2.178033337391189</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.5759919895468402</v>
       </c>
       <c r="J35" t="n">
-        <v>17.8334559813415</v>
+        <v>0.5967895901504737</v>
       </c>
       <c r="K35" t="n">
-        <v>0.8446189852533468</v>
+        <v>5.24539615300895</v>
       </c>
       <c r="L35" t="n">
-        <v>0.5218615030837559</v>
+        <v>2.660800043143624</v>
       </c>
       <c r="M35" t="n">
-        <v>1.670685881153203</v>
+        <v>0.6287314686072282</v>
       </c>
       <c r="N35" t="n">
-        <v>1.396763700576368</v>
+        <v>0.9532445649826879</v>
       </c>
       <c r="O35" t="n">
-        <v>3.593051862160551</v>
+        <v>0.6131741219417994</v>
       </c>
       <c r="P35" t="n">
-        <v>0.3581194112799069</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.3317728042870164</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.295719752647921</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0.7368138102174203</v>
+        <v>2.214265332546054</v>
       </c>
     </row>
     <row r="36">
@@ -2819,60 +2434,49 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F36" t="n">
-        <v>168</v>
-      </c>
-      <c r="G36" t="n">
         <v>72</v>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H36" t="n">
-        <v>240</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>2.359443668991543</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.5716533642316876</v>
       </c>
       <c r="J36" t="n">
-        <v>17.9533480263293</v>
+        <v>0.6147290581554221</v>
       </c>
       <c r="K36" t="n">
-        <v>0.8657733983609155</v>
+        <v>5.674148064700239</v>
       </c>
       <c r="L36" t="n">
-        <v>0.6527134489522188</v>
+        <v>3.044034404241887</v>
       </c>
       <c r="M36" t="n">
-        <v>1.412803957138559</v>
+        <v>0.7031916842006003</v>
       </c>
       <c r="N36" t="n">
-        <v>0.3936911331243802</v>
+        <v>1.131260408953547</v>
       </c>
       <c r="O36" t="n">
-        <v>3.605781525489796</v>
+        <v>0.6240359540139735</v>
       </c>
       <c r="P36" t="n">
-        <v>0.6340971448797745</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.3781891578718312</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.168815728070864</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.2678272849755499</v>
+        <v>2.25980618387414</v>
       </c>
     </row>
     <row r="37">
@@ -2886,60 +2490,49 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F37" t="n">
-        <v>168</v>
-      </c>
-      <c r="G37" t="n">
         <v>72</v>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H37" t="n">
-        <v>240</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>1.279845121156079</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.5514213903312861</v>
       </c>
       <c r="J37" t="n">
-        <v>17.7147185580047</v>
+        <v>1.18802674526792</v>
       </c>
       <c r="K37" t="n">
-        <v>0.8110265043320115</v>
+        <v>3.981317909879519</v>
       </c>
       <c r="L37" t="n">
-        <v>0.6365587266383449</v>
+        <v>1.58666332807797</v>
       </c>
       <c r="M37" t="n">
-        <v>1.53130311472926</v>
+        <v>0.969852492097916</v>
       </c>
       <c r="N37" t="n">
-        <v>0.3943916540321919</v>
+        <v>0.8175929355684883</v>
       </c>
       <c r="O37" t="n">
-        <v>3.576477375632769</v>
+        <v>0.5580212817971428</v>
       </c>
       <c r="P37" t="n">
-        <v>0.3005668734694558</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.2951918575080835</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.2489585547370036</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.284126879309916</v>
+        <v>1.893959491897083</v>
       </c>
     </row>
     <row r="38">
@@ -2953,60 +2546,49 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F38" t="n">
-        <v>168</v>
-      </c>
-      <c r="G38" t="n">
         <v>72</v>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H38" t="n">
-        <v>240</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>1.173439129643131</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.5615477244497913</v>
       </c>
       <c r="J38" t="n">
-        <v>18.14536118815676</v>
+        <v>0.7202203399118658</v>
       </c>
       <c r="K38" t="n">
-        <v>0.904310656961806</v>
+        <v>3.259608134527929</v>
       </c>
       <c r="L38" t="n">
-        <v>0.4099160915071691</v>
+        <v>1.145523356557328</v>
       </c>
       <c r="M38" t="n">
-        <v>1.610005459040607</v>
+        <v>0.6728108306664167</v>
       </c>
       <c r="N38" t="n">
-        <v>0.2172462408547428</v>
+        <v>0.6505811256158373</v>
       </c>
       <c r="O38" t="n">
-        <v>3.64192009834176</v>
+        <v>0.5669013945940435</v>
       </c>
       <c r="P38" t="n">
-        <v>0.2930694548963467</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.4705233679527906</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.2355369421421252</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0.3118223999093375</v>
+        <v>1.804267799880665</v>
       </c>
     </row>
     <row r="39">
@@ -3020,60 +2602,49 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F39" t="n">
-        <v>168</v>
-      </c>
-      <c r="G39" t="n">
         <v>72</v>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H39" t="n">
-        <v>240</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>0.9453554266170595</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5831173871311105</v>
       </c>
       <c r="J39" t="n">
-        <v>16.49808931453249</v>
+        <v>0.8463804893088734</v>
       </c>
       <c r="K39" t="n">
-        <v>0.753070366162027</v>
+        <v>2.150449910391065</v>
       </c>
       <c r="L39" t="n">
-        <v>1.926372421405833</v>
+        <v>0.7907684334300604</v>
       </c>
       <c r="M39" t="n">
-        <v>1.431134519932091</v>
+        <v>0.6187179514756987</v>
       </c>
       <c r="N39" t="n">
-        <v>1.685686934212432</v>
+        <v>0.7647330408824888</v>
       </c>
       <c r="O39" t="n">
-        <v>3.43980441421184</v>
+        <v>0.5771135240594765</v>
       </c>
       <c r="P39" t="n">
-        <v>0.7756165824936315</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.5084871935552814</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.382040594635308</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.008473979350076</v>
+        <v>1.689513689941322</v>
       </c>
     </row>
     <row r="40">
@@ -3089,58 +2660,49 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F40" t="n">
-        <v>168</v>
-      </c>
-      <c r="G40" t="n">
         <v>72</v>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H40" t="n">
-        <v>240</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>1.640255546979041</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.5697478823026594</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.865663510678791</v>
+      </c>
       <c r="K40" t="n">
-        <v>0.9322549231946603</v>
+        <v>3.894809324891462</v>
       </c>
       <c r="L40" t="n">
-        <v>0.6533584927340512</v>
+        <v>1.849991638837427</v>
       </c>
       <c r="M40" t="n">
-        <v>1.636449279611876</v>
+        <v>0.7502335464511273</v>
       </c>
       <c r="N40" t="n">
-        <v>0.7409097044734668</v>
+        <v>0.8514810490769835</v>
       </c>
       <c r="O40" t="n">
-        <v>3.656006324945677</v>
+        <v>0.5847132007859427</v>
       </c>
       <c r="P40" t="n">
-        <v>0.7385939829128726</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0.5252081728777229</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0.7316342595460951</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0.6161048179085252</v>
+        <v>2.141220490735293</v>
       </c>
     </row>
     <row r="41">
@@ -3154,60 +2716,49 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F41" t="n">
-        <v>168</v>
-      </c>
-      <c r="G41" t="n">
         <v>72</v>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H41" t="n">
-        <v>240</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>2.694178500004568</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5710635610983968</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1775766786582857</v>
+        <v>0.7166741991108743</v>
       </c>
       <c r="K41" t="n">
-        <v>3.493731750829938</v>
+        <v>0.7246195648675223</v>
       </c>
       <c r="L41" t="n">
-        <v>1.68259862605596</v>
+        <v>1.479176252140151</v>
       </c>
       <c r="M41" t="n">
-        <v>6.387893521265447</v>
+        <v>0.6837873810573605</v>
       </c>
       <c r="N41" t="n">
-        <v>2.941121119020616</v>
+        <v>0.6408457146946746</v>
       </c>
       <c r="O41" t="n">
-        <v>7.612810366214983</v>
+        <v>0.5740005317854109</v>
       </c>
       <c r="P41" t="n">
-        <v>2.480954218048726</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.61086375118422</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.60796869586423</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2.462400252575969</v>
+        <v>5.594878312309668</v>
       </c>
     </row>
     <row r="42">
@@ -3221,60 +2772,49 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F42" t="n">
-        <v>168</v>
-      </c>
-      <c r="G42" t="n">
         <v>72</v>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H42" t="n">
-        <v>240</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>3.19388661413011</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.5852020146897509</v>
       </c>
       <c r="J42" t="n">
-        <v>-1.158841763900863</v>
+        <v>1.344137842614412</v>
       </c>
       <c r="K42" t="n">
-        <v>2.744575282746127</v>
+        <v>1.934649838314202</v>
       </c>
       <c r="L42" t="n">
-        <v>0.7542689048363935</v>
+        <v>2.165765801778572</v>
       </c>
       <c r="M42" t="n">
-        <v>6.332060328421821</v>
+        <v>0.6194180722011204</v>
       </c>
       <c r="N42" t="n">
-        <v>1.482365647820094</v>
+        <v>0.7523695408475024</v>
       </c>
       <c r="O42" t="n">
-        <v>7.450153767575372</v>
+        <v>0.5835314922855419</v>
       </c>
       <c r="P42" t="n">
-        <v>3.574341290606111</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3.947282193743369</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.083404270519633</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0.2512245635983038</v>
+        <v>5.707008445529075</v>
       </c>
     </row>
     <row r="43">
@@ -3288,60 +2828,49 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F43" t="n">
-        <v>168</v>
-      </c>
-      <c r="G43" t="n">
         <v>72</v>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H43" t="n">
-        <v>240</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>2.755568588750043</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.5657282041618569</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.646269944129682</v>
+        <v>0.743447102001036</v>
       </c>
       <c r="K43" t="n">
-        <v>2.111521284010276</v>
+        <v>1.207006988455336</v>
       </c>
       <c r="L43" t="n">
-        <v>2.071428377644529</v>
+        <v>1.739219249925273</v>
       </c>
       <c r="M43" t="n">
-        <v>5.27967362183512</v>
+        <v>0.9230331112680116</v>
       </c>
       <c r="N43" t="n">
-        <v>1.085014225332478</v>
+        <v>0.6141010672650042</v>
       </c>
       <c r="O43" t="n">
-        <v>7.314295445706275</v>
+        <v>0.5712144737766316</v>
       </c>
       <c r="P43" t="n">
-        <v>0.7273759666366916</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5.434710373972188</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.801572625446423</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0.5122700047675476</v>
+        <v>5.596242542391595</v>
       </c>
     </row>
     <row r="44">
@@ -3355,60 +2884,49 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F44" t="n">
-        <v>168</v>
-      </c>
-      <c r="G44" t="n">
         <v>72</v>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H44" t="n">
-        <v>240</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>3.77067231293961</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.5771544381711193</v>
       </c>
       <c r="J44" t="n">
-        <v>-2.686410442011876</v>
+        <v>2.675214886483605</v>
       </c>
       <c r="K44" t="n">
-        <v>2.086990384433383</v>
+        <v>4.337824994734761</v>
       </c>
       <c r="L44" t="n">
-        <v>1.016848024501081</v>
+        <v>3.93285197610214</v>
       </c>
       <c r="M44" t="n">
-        <v>5.491589911533144</v>
+        <v>0.6423426438962225</v>
       </c>
       <c r="N44" t="n">
-        <v>0.2580668360243186</v>
+        <v>1.179226925130859</v>
       </c>
       <c r="O44" t="n">
-        <v>7.305951473892161</v>
+        <v>0.6533034351948905</v>
       </c>
       <c r="P44" t="n">
-        <v>0.4726807568965896</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5.474850871854383</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0.825701989867709</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0.3054722409512417</v>
+        <v>5.889804404945884</v>
       </c>
     </row>
     <row r="45">
@@ -3422,60 +2940,49 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F45" t="n">
-        <v>168</v>
-      </c>
-      <c r="G45" t="n">
         <v>72</v>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H45" t="n">
-        <v>240</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>3.381008973782969</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.5612183862782456</v>
       </c>
       <c r="J45" t="n">
-        <v>-2.733110722075109</v>
+        <v>0.5774210675989554</v>
       </c>
       <c r="K45" t="n">
-        <v>2.056738336328586</v>
+        <v>4.358581302577281</v>
       </c>
       <c r="L45" t="n">
-        <v>0.9380479085617125</v>
+        <v>3.947481113046548</v>
       </c>
       <c r="M45" t="n">
-        <v>5.281480605427101</v>
+        <v>0.5956771066505505</v>
       </c>
       <c r="N45" t="n">
-        <v>0.2481428791296297</v>
+        <v>0.7177232654008183</v>
       </c>
       <c r="O45" t="n">
-        <v>7.301217171390627</v>
+        <v>0.5684440419404194</v>
       </c>
       <c r="P45" t="n">
-        <v>0.4125009836176038</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5.521551151917614</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0.8314993461171055</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0.2350921383308168</v>
+        <v>5.837674238540051</v>
       </c>
     </row>
     <row r="46">
@@ -3489,60 +2996,49 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F46" t="n">
-        <v>168</v>
-      </c>
-      <c r="G46" t="n">
         <v>72</v>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H46" t="n">
-        <v>240</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>3.210651870761864</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.5621366000917173</v>
       </c>
       <c r="J46" t="n">
-        <v>-3.969002204863772</v>
+        <v>1.014949269239313</v>
       </c>
       <c r="K46" t="n">
-        <v>1.704003351635374</v>
+        <v>3.013951820859713</v>
       </c>
       <c r="L46" t="n">
-        <v>1.783708905235842</v>
+        <v>2.883740725764265</v>
       </c>
       <c r="M46" t="n">
-        <v>5.027928465535041</v>
+        <v>0.6702864574574665</v>
       </c>
       <c r="N46" t="n">
-        <v>0.9423391736681065</v>
+        <v>0.7856312006877046</v>
       </c>
       <c r="O46" t="n">
-        <v>7.211101559248124</v>
+        <v>0.5625414162293155</v>
       </c>
       <c r="P46" t="n">
-        <v>0.7811701593441123</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>6.757442634706276</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.624744365480827</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0.897969736410889</v>
+        <v>5.65297253672464</v>
       </c>
     </row>
     <row r="47">
@@ -3556,60 +3052,49 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F47" t="n">
-        <v>168</v>
-      </c>
-      <c r="G47" t="n">
         <v>72</v>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H47" t="n">
-        <v>240</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>3.020154433480421</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.6057536974256392</v>
       </c>
       <c r="J47" t="n">
-        <v>-4.848261192819722</v>
+        <v>0.6008030442543155</v>
       </c>
       <c r="K47" t="n">
-        <v>1.566787067064479</v>
+        <v>2.818576082565983</v>
       </c>
       <c r="L47" t="n">
-        <v>1.476368611801201</v>
+        <v>2.741397042853901</v>
       </c>
       <c r="M47" t="n">
-        <v>4.493939723796078</v>
+        <v>0.7538088190963342</v>
       </c>
       <c r="N47" t="n">
-        <v>0.7161174150491655</v>
+        <v>0.7448342909980946</v>
       </c>
       <c r="O47" t="n">
-        <v>7.15271700468997</v>
+        <v>0.5807626915846547</v>
       </c>
       <c r="P47" t="n">
-        <v>1.521544039079015</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>7.636701622662229</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.055248099332257</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0.2488926475683945</v>
+        <v>5.602294002413313</v>
       </c>
     </row>
     <row r="48">
@@ -3623,60 +3108,49 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F48" t="n">
-        <v>168</v>
-      </c>
-      <c r="G48" t="n">
         <v>72</v>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H48" t="n">
-        <v>240</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>2.452066218676741</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.5633683534433296</v>
       </c>
       <c r="J48" t="n">
-        <v>-5.55957415778605</v>
+        <v>2.53739167713259</v>
       </c>
       <c r="K48" t="n">
-        <v>1.523672340726071</v>
+        <v>0.6228627637752776</v>
       </c>
       <c r="L48" t="n">
-        <v>2.17466197208502</v>
+        <v>1.357179919718894</v>
       </c>
       <c r="M48" t="n">
-        <v>4.237469913092261</v>
+        <v>0.9933073003161108</v>
       </c>
       <c r="N48" t="n">
-        <v>0.4985321247405506</v>
+        <v>0.7283810495419698</v>
       </c>
       <c r="O48" t="n">
-        <v>7.109238012285905</v>
+        <v>0.5921283931072279</v>
       </c>
       <c r="P48" t="n">
-        <v>0.4963408525808312</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>8.348014587628553</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.835782871115432</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0.2710359527843336</v>
+        <v>5.357952354707895</v>
       </c>
     </row>
     <row r="49">
@@ -3690,60 +3164,49 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F49" t="n">
-        <v>168</v>
-      </c>
-      <c r="G49" t="n">
         <v>72</v>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H49" t="n">
-        <v>240</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>2.739239404171719</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.6025780616718081</v>
       </c>
       <c r="J49" t="n">
-        <v>-6.246216128830214</v>
+        <v>1.851587216818161</v>
       </c>
       <c r="K49" t="n">
-        <v>1.53251434502558</v>
+        <v>1.316787553001163</v>
       </c>
       <c r="L49" t="n">
-        <v>1.809465688056597</v>
+        <v>1.283536450032991</v>
       </c>
       <c r="M49" t="n">
-        <v>4.311468148570726</v>
+        <v>1.244460352809752</v>
       </c>
       <c r="N49" t="n">
-        <v>0.4854395038849624</v>
+        <v>1.421899921851957</v>
       </c>
       <c r="O49" t="n">
-        <v>7.069071806048491</v>
+        <v>0.5632309238640374</v>
       </c>
       <c r="P49" t="n">
-        <v>0.508407302360953</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>9.034656558672717</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.439392443526494</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0.239817219681249</v>
+        <v>5.190726094280548</v>
       </c>
     </row>
     <row r="50">
@@ -3757,60 +3220,49 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F50" t="n">
-        <v>168</v>
-      </c>
-      <c r="G50" t="n">
         <v>72</v>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H50" t="n">
-        <v>240</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>3.264209031662916</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.5834262976934874</v>
       </c>
       <c r="J50" t="n">
-        <v>-6.818905406703284</v>
+        <v>2.446566794028609</v>
       </c>
       <c r="K50" t="n">
-        <v>1.582228015965866</v>
+        <v>4.034285344461225</v>
       </c>
       <c r="L50" t="n">
-        <v>2.421541149215561</v>
+        <v>2.251254921063548</v>
       </c>
       <c r="M50" t="n">
-        <v>4.494716645333258</v>
+        <v>1.091273285975768</v>
       </c>
       <c r="N50" t="n">
-        <v>0.4821613216780524</v>
+        <v>1.920876204372099</v>
       </c>
       <c r="O50" t="n">
-        <v>7.038146063378971</v>
+        <v>0.5476223327270497</v>
       </c>
       <c r="P50" t="n">
-        <v>0.5302073741708885</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>9.60734583654579</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0.8650979294331228</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0.2667008634778365</v>
+        <v>4.992142741059515</v>
       </c>
     </row>
     <row r="51">
@@ -3824,60 +3276,49 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F51" t="n">
-        <v>168</v>
-      </c>
-      <c r="G51" t="n">
         <v>72</v>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H51" t="n">
-        <v>240</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>3.074623320972208</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.5777840942954323</v>
       </c>
       <c r="J51" t="n">
-        <v>-6.989367443194175</v>
+        <v>0.5729286968002465</v>
       </c>
       <c r="K51" t="n">
-        <v>1.595225159803842</v>
+        <v>3.759163296564203</v>
       </c>
       <c r="L51" t="n">
-        <v>2.424740574740704</v>
+        <v>2.119474691991832</v>
       </c>
       <c r="M51" t="n">
-        <v>4.15582228827088</v>
+        <v>0.7698644226546935</v>
       </c>
       <c r="N51" t="n">
-        <v>0.2830032424574315</v>
+        <v>1.154712637354845</v>
       </c>
       <c r="O51" t="n">
-        <v>7.036646428652997</v>
+        <v>0.6698690805009314</v>
       </c>
       <c r="P51" t="n">
-        <v>0.2935303091193243</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>9.777807873036686</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0.6361837558230994</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0.2556410629203263</v>
+        <v>5.011485382423171</v>
       </c>
     </row>
     <row r="52">
@@ -3891,60 +3332,49 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F52" t="n">
-        <v>168</v>
-      </c>
-      <c r="G52" t="n">
         <v>72</v>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H52" t="n">
-        <v>240</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+        <v>2.620456950125139</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.5955668082387903</v>
       </c>
       <c r="J52" t="n">
-        <v>-6.988144828608204</v>
+        <v>1.982739704039614</v>
       </c>
       <c r="K52" t="n">
-        <v>1.586495056814528</v>
+        <v>1.480012773921521</v>
       </c>
       <c r="L52" t="n">
-        <v>0.6526009103230873</v>
+        <v>1.300573387962392</v>
       </c>
       <c r="M52" t="n">
-        <v>3.954166891261144</v>
+        <v>0.7160660153024883</v>
       </c>
       <c r="N52" t="n">
-        <v>0.2737739673003963</v>
+        <v>0.6554081392588869</v>
       </c>
       <c r="O52" t="n">
-        <v>7.046960979332447</v>
+        <v>0.6810662727691943</v>
       </c>
       <c r="P52" t="n">
-        <v>0.2501713082874817</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>9.776585258450714</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0.6966153999078175</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0.2547910229296692</v>
+        <v>5.178076440874364</v>
       </c>
     </row>
     <row r="53">
@@ -3960,58 +3390,49 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ARIMA</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F53" t="n">
-        <v>168</v>
-      </c>
-      <c r="G53" t="n">
         <v>72</v>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
       <c r="H53" t="n">
-        <v>240</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>3.014726351621526</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.5792483764382977</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.421988458343478</v>
+      </c>
       <c r="K53" t="n">
-        <v>1.965373531282004</v>
+        <v>2.467360193674849</v>
       </c>
       <c r="L53" t="n">
-        <v>1.600523304421474</v>
+        <v>2.266804294365042</v>
       </c>
       <c r="M53" t="n">
-        <v>4.954017505361835</v>
+        <v>0.8086104140571565</v>
       </c>
       <c r="N53" t="n">
-        <v>0.8080064546754833</v>
+        <v>0.9430008297837014</v>
       </c>
       <c r="O53" t="n">
-        <v>7.220692506534694</v>
+        <v>0.5956429238137755</v>
       </c>
       <c r="P53" t="n">
-        <v>1.004102046729027</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>6.993984392864561</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1.191934316036179</v>
-      </c>
-      <c r="S53" t="n">
-        <v>0.5167756421663814</v>
+        <v>5.467604791349976</v>
       </c>
     </row>
   </sheetData>
